--- a/exped_rec.xlsx
+++ b/exped_rec.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alves\Documents\bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iluminação\Documents\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90488C2-D6A5-4DD5-901D-596188ECDE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7435E7-3B0B-4E7C-B86B-AC9B60032DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED43CE0B-AD27-4601-9ED6-62293532083B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED43CE0B-AD27-4601-9ED6-62293532083B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan_Base" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -164,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +201,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -350,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -389,6 +395,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -788,92 +798,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A656A3-2D61-4132-997A-00C33971941E}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -885,28 +895,28 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -921,7 +931,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>8</v>
@@ -936,7 +946,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
@@ -951,7 +961,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>8</v>
@@ -966,7 +976,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
@@ -981,7 +991,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
@@ -996,7 +1006,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
         <v>8</v>
@@ -1011,7 +1021,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
         <v>8</v>
@@ -1026,7 +1036,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>8</v>
@@ -1041,7 +1051,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
@@ -1056,7 +1066,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>8</v>
@@ -1071,7 +1081,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
         <v>8</v>
@@ -1086,7 +1096,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
         <v>8</v>
@@ -1101,7 +1111,7 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="6" t="s">
         <v>8</v>
@@ -1116,7 +1126,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="6" t="s">
         <v>8</v>
@@ -1131,7 +1141,7 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
         <v>8</v>
@@ -1146,7 +1156,7 @@
       </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="6" t="s">
         <v>8</v>
@@ -1161,7 +1171,7 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="6" t="s">
         <v>8</v>
@@ -1176,7 +1186,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="6" t="s">
         <v>8</v>
@@ -1191,7 +1201,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="6" t="s">
         <v>8</v>
@@ -1206,7 +1216,7 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="6" t="s">
         <v>8</v>
@@ -1221,7 +1231,7 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="6" t="s">
         <v>8</v>
@@ -1236,7 +1246,7 @@
       </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="6" t="s">
         <v>8</v>
@@ -1249,9 +1259,10 @@
       <c r="F32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G32" s="12"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="6" t="s">
         <v>8</v>
@@ -1264,9 +1275,9 @@
       <c r="F33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="6" t="s">
         <v>8</v>
@@ -1279,9 +1290,9 @@
       <c r="F34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="6" t="s">
         <v>8</v>
@@ -1294,9 +1305,9 @@
       <c r="F35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="6" t="s">
         <v>8</v>
@@ -1309,9 +1320,9 @@
       <c r="F36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="6" t="s">
         <v>8</v>
@@ -1324,9 +1335,9 @@
       <c r="F37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="6" t="s">
         <v>8</v>
@@ -1339,9 +1350,9 @@
       <c r="F38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
